--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H2">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J2">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.87998551349961</v>
+        <v>0.353194</v>
       </c>
       <c r="N2">
-        <v>1.87998551349961</v>
+        <v>1.059582</v>
       </c>
       <c r="O2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q2">
-        <v>3.351534839646412</v>
+        <v>2.762880667983334</v>
       </c>
       <c r="R2">
-        <v>3.351534839646412</v>
+        <v>24.86592601185</v>
       </c>
       <c r="S2">
-        <v>2.701512275562392E-05</v>
+        <v>2.164633404841398E-05</v>
       </c>
       <c r="T2">
-        <v>2.701512275562392E-05</v>
+        <v>2.164633404841398E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H3">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I3">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J3">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204035667047674</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N3">
-        <v>0.204035667047674</v>
+        <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q3">
-        <v>0.3637435723469029</v>
+        <v>14.78687510920278</v>
       </c>
       <c r="R3">
-        <v>0.3637435723469029</v>
+        <v>133.081875982825</v>
       </c>
       <c r="S3">
-        <v>2.9319633328226E-06</v>
+        <v>0.0001158506923064519</v>
       </c>
       <c r="T3">
-        <v>2.9319633328226E-06</v>
+        <v>0.0001158506923064519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.78274503477822</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H4">
-        <v>1.78274503477822</v>
+        <v>23.467675</v>
       </c>
       <c r="I4">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J4">
-        <v>0.0002857192704207807</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.7992158558983</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N4">
-        <v>17.7992158558983</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q4">
-        <v>31.73146369004846</v>
+        <v>1.761747044963889</v>
       </c>
       <c r="R4">
-        <v>31.73146369004846</v>
+        <v>15.855723404675</v>
       </c>
       <c r="S4">
-        <v>0.0002557721843323342</v>
+        <v>1.380275503246041E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002557721843323342</v>
+        <v>1.380275503246041E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6033.69616181804</v>
+        <v>7.822558333333333</v>
       </c>
       <c r="H5">
-        <v>6033.69616181804</v>
+        <v>23.467675</v>
       </c>
       <c r="I5">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="J5">
-        <v>0.9670161642098082</v>
+        <v>0.001247993910151231</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87998551349961</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N5">
-        <v>1.87998551349961</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q5">
-        <v>11343.26137707611</v>
+        <v>139.9791299661028</v>
       </c>
       <c r="R5">
-        <v>11343.26137707611</v>
+        <v>1259.812169694925</v>
       </c>
       <c r="S5">
-        <v>0.09143261616315713</v>
+        <v>0.001096694128763905</v>
       </c>
       <c r="T5">
-        <v>0.09143261616315713</v>
+        <v>0.001096694128763905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6033.69616181804</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H6">
-        <v>6033.69616181804</v>
+        <v>18113.320312</v>
       </c>
       <c r="I6">
-        <v>0.9670161642098082</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J6">
-        <v>0.9670161642098082</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.204035667047674</v>
+        <v>0.353194</v>
       </c>
       <c r="N6">
-        <v>0.204035667047674</v>
+        <v>1.059582</v>
       </c>
       <c r="O6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q6">
-        <v>1231.089221139534</v>
+        <v>2132.505351425509</v>
       </c>
       <c r="R6">
-        <v>1231.089221139534</v>
+        <v>19192.54816282959</v>
       </c>
       <c r="S6">
-        <v>0.009923222649751326</v>
+        <v>0.01670753418050464</v>
       </c>
       <c r="T6">
-        <v>0.009923222649751326</v>
+        <v>0.01670753418050464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6033.69616181804</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H7">
-        <v>6033.69616181804</v>
+        <v>18113.320312</v>
       </c>
       <c r="I7">
-        <v>0.9670161642098082</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J7">
-        <v>0.9670161642098082</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7992158558983</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N7">
-        <v>17.7992158558983</v>
+        <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q7">
-        <v>107395.0603931044</v>
+        <v>11413.12061235422</v>
       </c>
       <c r="R7">
-        <v>107395.0603931044</v>
+        <v>102718.085511188</v>
       </c>
       <c r="S7">
-        <v>0.8656603253968996</v>
+        <v>0.08941834664549073</v>
       </c>
       <c r="T7">
-        <v>0.8656603253968996</v>
+        <v>0.08941834664549073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.649551861772563</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H8">
-        <v>0.649551861772563</v>
+        <v>18113.320312</v>
       </c>
       <c r="I8">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J8">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.87998551349961</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N8">
-        <v>1.87998551349961</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P8">
-        <v>0.09455128005835434</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q8">
-        <v>1.221148090399119</v>
+        <v>1359.789094324443</v>
       </c>
       <c r="R8">
-        <v>1.221148090399119</v>
+        <v>12238.10184891999</v>
       </c>
       <c r="S8">
-        <v>9.843091939455519E-06</v>
+        <v>0.01065353611259</v>
       </c>
       <c r="T8">
-        <v>9.843091939455519E-06</v>
+        <v>0.01065353611259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.649551861772563</v>
+        <v>6037.773437333333</v>
       </c>
       <c r="H9">
-        <v>0.649551861772563</v>
+        <v>18113.320312</v>
       </c>
       <c r="I9">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="J9">
-        <v>0.0001041032118590107</v>
+        <v>0.9632532171165058</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.204035667047674</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N9">
-        <v>0.204035667047674</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P9">
-        <v>0.01026169263453836</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q9">
-        <v>0.1325317473988234</v>
+        <v>108041.6708545306</v>
       </c>
       <c r="R9">
-        <v>0.1325317473988234</v>
+        <v>972375.0376907758</v>
       </c>
       <c r="S9">
-        <v>1.068275162365397E-06</v>
+        <v>0.8464738001779204</v>
       </c>
       <c r="T9">
-        <v>1.068275162365397E-06</v>
+        <v>0.8464738001779204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.649551861772563</v>
+        <v>1.018774</v>
       </c>
       <c r="H10">
-        <v>0.649551861772563</v>
+        <v>3.056322</v>
       </c>
       <c r="I10">
-        <v>0.0001041032118590107</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="J10">
-        <v>0.0001041032118590107</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>17.7992158558983</v>
+        <v>0.353194</v>
       </c>
       <c r="N10">
-        <v>17.7992158558983</v>
+        <v>1.059582</v>
       </c>
       <c r="O10">
-        <v>0.8951870273071072</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P10">
-        <v>0.8951870273071072</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q10">
-        <v>11.56151379729046</v>
+        <v>0.359824864156</v>
       </c>
       <c r="R10">
-        <v>11.56151379729046</v>
+        <v>3.238423777404</v>
       </c>
       <c r="S10">
-        <v>9.319184475718981E-05</v>
+        <v>2.819118935792179E-06</v>
       </c>
       <c r="T10">
-        <v>9.319184475718981E-05</v>
+        <v>2.819118935792179E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>203.37030576412</v>
+        <v>1.018774</v>
       </c>
       <c r="H11">
-        <v>203.37030576412</v>
+        <v>3.056322</v>
       </c>
       <c r="I11">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="J11">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.87998551349961</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N11">
-        <v>1.87998551349961</v>
+        <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09455128005835434</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P11">
-        <v>0.09455128005835434</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q11">
-        <v>382.3332287125318</v>
+        <v>1.925774568955333</v>
       </c>
       <c r="R11">
-        <v>382.3332287125318</v>
+        <v>17.331971120598</v>
       </c>
       <c r="S11">
-        <v>0.003081805680502122</v>
+        <v>1.508786105191245E-05</v>
       </c>
       <c r="T11">
-        <v>0.003081805680502122</v>
+        <v>1.508786105191245E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>203.37030576412</v>
+        <v>1.018774</v>
       </c>
       <c r="H12">
-        <v>203.37030576412</v>
+        <v>3.056322</v>
       </c>
       <c r="I12">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="J12">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.204035667047674</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N12">
-        <v>0.204035667047674</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O12">
-        <v>0.01026169263453836</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P12">
-        <v>0.01026169263453836</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q12">
-        <v>41.49479599427164</v>
+        <v>0.2294418280446666</v>
       </c>
       <c r="R12">
-        <v>41.49479599427164</v>
+        <v>2.064976452402</v>
       </c>
       <c r="S12">
-        <v>0.0003344697462918466</v>
+        <v>1.797607298819311E-06</v>
       </c>
       <c r="T12">
-        <v>0.0003344697462918466</v>
+        <v>1.797607298819311E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>203.37030576412</v>
+        <v>1.018774</v>
       </c>
       <c r="H13">
-        <v>203.37030576412</v>
+        <v>3.056322</v>
       </c>
       <c r="I13">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="J13">
-        <v>0.03259401330791207</v>
+        <v>0.0001625329839219791</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7992158558983</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N13">
-        <v>17.7992158558983</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O13">
-        <v>0.8951870273071072</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P13">
-        <v>0.8951870273071072</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q13">
-        <v>3619.83197097561</v>
+        <v>18.23023774005133</v>
       </c>
       <c r="R13">
-        <v>3619.83197097561</v>
+        <v>164.072139660462</v>
       </c>
       <c r="S13">
-        <v>0.0291777378811181</v>
+        <v>0.0001428283966354551</v>
       </c>
       <c r="T13">
-        <v>0.0291777378811181</v>
+        <v>0.0001428283966354551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H14">
+        <v>664.474213</v>
+      </c>
+      <c r="I14">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J14">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.353194</v>
+      </c>
+      <c r="N14">
+        <v>1.059582</v>
+      </c>
+      <c r="O14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P14">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q14">
+        <v>78.22943506210733</v>
+      </c>
+      <c r="R14">
+        <v>704.0649155589659</v>
+      </c>
+      <c r="S14">
+        <v>0.0006129039532529313</v>
+      </c>
+      <c r="T14">
+        <v>0.0006129039532529313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H15">
+        <v>664.474213</v>
+      </c>
+      <c r="I15">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J15">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.670859</v>
+      </c>
+      <c r="O15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P15">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q15">
+        <v>418.6821745621074</v>
+      </c>
+      <c r="R15">
+        <v>3768.139571058967</v>
+      </c>
+      <c r="S15">
+        <v>0.003280248153932367</v>
+      </c>
+      <c r="T15">
+        <v>0.003280248153932367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H16">
+        <v>664.474213</v>
+      </c>
+      <c r="I16">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J16">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P16">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q16">
+        <v>49.88289130505922</v>
+      </c>
+      <c r="R16">
+        <v>448.946021745533</v>
+      </c>
+      <c r="S16">
+        <v>0.0003908173599398288</v>
+      </c>
+      <c r="T16">
+        <v>0.0003908173599398288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>221.4914043333333</v>
+      </c>
+      <c r="H17">
+        <v>664.474213</v>
+      </c>
+      <c r="I17">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="J17">
+        <v>0.03533625598942085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N17">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P17">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q17">
+        <v>3963.431495478391</v>
+      </c>
+      <c r="R17">
+        <v>35670.88345930552</v>
+      </c>
+      <c r="S17">
+        <v>0.03105228652229572</v>
+      </c>
+      <c r="T17">
+        <v>0.03105228652229572</v>
       </c>
     </row>
   </sheetData>
